--- a/Documents/やることリスト.xlsx
+++ b/Documents/やることリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tana6\Desktop\学校\AbyssEngine\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220097\Desktop\チーム・個人制作\AbyssEngine\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF73884A-CFE9-47EC-AC9B-5A2A47997D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22248F25-9316-45E7-A19F-57D25A447F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{B3622158-4C97-453D-BD0E-9F636553D83A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B3622158-4C97-453D-BD0E-9F636553D83A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TODOリスト</t>
     <phoneticPr fontId="2"/>
@@ -103,6 +103,217 @@
   </si>
   <si>
     <t>×</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>カメラの上下方向の回転修正</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AimIKの実装</t>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銃を持っている位置がおかしい</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定版ステージの描画</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ関係、とくに前半部分のロジック実装</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マズルフラッシュ、弾丸のエフェクト</t>
+    <rPh sb="9" eb="11">
+      <t>ダンガン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPUパーティクルによるスラスターエフェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後半のステージの配置</t>
+    <rPh sb="0" eb="2">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LODの実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スフィアキャストの実装</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡易的な空間分割</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>クウカンブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定用モデルの作成</t>
+    <rPh sb="0" eb="3">
+      <t>ハンテイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>判定用モデルの行列計算がおかしい？</t>
+    <rPh sb="0" eb="3">
+      <t>ハンテイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種モーションの準備</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スライディングの実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームシステムの構築</t>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロード画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴィテスの射撃攻撃</t>
+    <rPh sb="5" eb="9">
+      <t>シャゲキコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上半身と下半身のモーションブレンド</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウハンシン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カハンシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴィテスの近接攻撃</t>
+    <rPh sb="5" eb="9">
+      <t>キンセツコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスモデルの用意</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵モデル（小型ロボなどの実装）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -226,11 +437,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -262,6 +483,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -272,9 +500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color theme="9"/>
+        <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,27 +840,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A2EA11-D986-45D8-ACDB-18440098E8B3}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="35.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -627,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -636,223 +883,267 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" cm="1">
         <f t="array" aca="1" ref="A8" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" cm="1">
         <f t="array" aca="1" ref="A9" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>19</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>21</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>22</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" ht="28.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="24" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" ht="24" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:D25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$D4="×"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$D4="〇"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$D4="×"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D25" xr:uid="{BCBA91F4-57A6-4DED-9A7C-C708541AC5FE}">
       <formula1>"〇,×"</formula1>
     </dataValidation>
